--- a/biology/Zoologie/Coluber_constrictor/Coluber_constrictor.xlsx
+++ b/biology/Zoologie/Coluber_constrictor/Coluber_constrictor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coluber constrictor, parfois appelée Couleuvre agile, est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coluber constrictor, parfois appelée Couleuvre agile, est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Canada, aux États-Unis, dans l'Est et le sud-est du Mexique, dans le nord du Guatemala et au Belize[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Canada, aux États-Unis, dans l'Est et le sud-est du Mexique, dans le nord du Guatemala et au Belize.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce reptile atteint un peu plus d'un mètre de long, mais certaines sous-espèces peuvent approcher les deux mètres. Les couleurs et motifs varient fortement selon les sous-espèces : noir, brun, marron, bleu ou vert. Toutes ont la face ventrale claire, en général blanche ou jaune. Les juvéniles présentent souvent des motifs très marqués.
 </t>
@@ -573,7 +589,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction a lieu au printemps. Environ un mois plus tard les femelles pondent de 3 à 30 œufs. Les petits mesurent environ 25 cm à la naissance et atteignent la maturité vers l'âge de deux ans.
 Il arrive que les femelles utilisent des sites de ponte communautaires où plusieurs femelles viennent déposer leurs œufs, y compris parfois des femelles d'autres espèces.
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (20 décembre 2012)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (20 décembre 2012) :
 Coluber constrictor anthicus (Cope, 1862)
 Coluber constrictor constrictor Linnaeus, 1758
 Coluber constrictor etheridgei Wilson, 1970
